--- a/REGULAR/OJT/NEW DONE/ALCAZAR, ZENAIDA.xlsx
+++ b/REGULAR/OJT/NEW DONE/ALCAZAR, ZENAIDA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A789B608-874B-445B-94AA-F162E109B1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F64280-EC7A-4F1F-9B7F-C359F8B73AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="360">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1824,7 +1824,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K611" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K610" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K610" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -2153,12 +2154,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K611"/>
+  <dimension ref="A2:K610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A555" activePane="bottomLeft"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="B562" sqref="B562"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2772" activePane="bottomLeft"/>
+      <selection activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="D558" sqref="D558"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2317,7 +2318,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.797000000000025</v>
+        <v>62.797000000000082</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2327,7 +2328,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>70.103000000000009</v>
+        <v>64.103000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8106,9 +8107,7 @@
         <f>EDATE(A266,1)</f>
         <v>40269</v>
       </c>
-      <c r="B270" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="B270" s="20"/>
       <c r="C270" s="13">
         <v>1.25</v>
       </c>
@@ -8130,7 +8129,9 @@
         <v>88</v>
       </c>
       <c r="C271" s="13"/>
-      <c r="D271" s="39"/>
+      <c r="D271" s="39">
+        <v>3</v>
+      </c>
       <c r="E271" s="13"/>
       <c r="F271" s="20"/>
       <c r="G271" s="13"/>
@@ -12003,7 +12004,7 @@
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23">
-        <f t="shared" ref="A451:A466" si="18">EDATE(A450,1)</f>
+        <f t="shared" ref="A451:A465" si="18">EDATE(A450,1)</f>
         <v>42795</v>
       </c>
       <c r="B451" s="20" t="s">
@@ -12080,36 +12081,33 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23"/>
-      <c r="B454" s="20"/>
+      <c r="B454" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C454" s="13"/>
-      <c r="D454" s="39"/>
-      <c r="E454" s="13">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.797000000000025</v>
-      </c>
+      <c r="D454" s="39">
+        <v>2</v>
+      </c>
+      <c r="E454" s="13"/>
       <c r="F454" s="20"/>
-      <c r="G454" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G454" s="13"/>
       <c r="H454" s="39"/>
-      <c r="I454" s="13">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>70.103000000000009</v>
-      </c>
+      <c r="I454" s="13"/>
       <c r="J454" s="11"/>
-      <c r="K454" s="20"/>
+      <c r="K454" s="20" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C455" s="13"/>
       <c r="D455" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E455" s="13"/>
       <c r="F455" s="20"/>
@@ -12117,163 +12115,165 @@
       <c r="H455" s="39"/>
       <c r="I455" s="13"/>
       <c r="J455" s="11"/>
-      <c r="K455" s="20" t="s">
-        <v>353</v>
+      <c r="K455" s="53">
+        <v>45072</v>
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C456" s="13"/>
-      <c r="D456" s="39">
-        <v>1</v>
-      </c>
+      <c r="D456" s="39"/>
       <c r="E456" s="13"/>
       <c r="F456" s="20"/>
       <c r="G456" s="13"/>
-      <c r="H456" s="39"/>
+      <c r="H456" s="39">
+        <v>1</v>
+      </c>
       <c r="I456" s="13"/>
       <c r="J456" s="11"/>
       <c r="K456" s="53">
-        <v>45072</v>
+        <v>45084</v>
       </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A457" s="23"/>
+      <c r="A457" s="23">
+        <f>EDATE(A453,1)</f>
+        <v>42887</v>
+      </c>
       <c r="B457" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C457" s="13"/>
-      <c r="D457" s="39"/>
+        <v>45</v>
+      </c>
+      <c r="C457" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D457" s="39">
+        <v>1</v>
+      </c>
       <c r="E457" s="13"/>
       <c r="F457" s="20"/>
-      <c r="G457" s="13"/>
-      <c r="H457" s="39">
-        <v>1</v>
-      </c>
+      <c r="G457" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H457" s="39"/>
       <c r="I457" s="13"/>
       <c r="J457" s="11"/>
       <c r="K457" s="53">
-        <v>45084</v>
+        <v>45093</v>
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A458" s="23">
-        <f>EDATE(A453,1)</f>
-        <v>42887</v>
-      </c>
+      <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C458" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D458" s="39">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C458" s="13"/>
+      <c r="D458" s="39"/>
       <c r="E458" s="13"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H458" s="39"/>
+      <c r="G458" s="13"/>
+      <c r="H458" s="39">
+        <v>1</v>
+      </c>
       <c r="I458" s="13"/>
       <c r="J458" s="11"/>
       <c r="K458" s="53">
-        <v>45093</v>
-      </c>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A459" s="23"/>
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="23">
+        <f>EDATE(A457,1)</f>
+        <v>42917</v>
+      </c>
       <c r="B459" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C459" s="13"/>
+      <c r="C459" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D459" s="39"/>
       <c r="E459" s="13"/>
       <c r="F459" s="20"/>
-      <c r="G459" s="13"/>
+      <c r="G459" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H459" s="39">
         <v>1</v>
       </c>
       <c r="I459" s="13"/>
       <c r="J459" s="11"/>
       <c r="K459" s="53">
-        <v>45107</v>
-      </c>
-    </row>
-    <row r="460" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A460" s="23">
-        <f>EDATE(A458,1)</f>
-        <v>42917</v>
-      </c>
+        <v>45133</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C460" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C460" s="13"/>
       <c r="D460" s="39"/>
       <c r="E460" s="13"/>
       <c r="F460" s="20"/>
-      <c r="G460" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G460" s="13"/>
       <c r="H460" s="39">
         <v>1</v>
       </c>
       <c r="I460" s="13"/>
       <c r="J460" s="11"/>
       <c r="K460" s="53">
-        <v>45133</v>
+        <v>45146</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C461" s="13"/>
-      <c r="D461" s="39"/>
+      <c r="D461" s="39">
+        <v>2</v>
+      </c>
       <c r="E461" s="13"/>
       <c r="F461" s="20"/>
       <c r="G461" s="13"/>
-      <c r="H461" s="39">
-        <v>1</v>
-      </c>
+      <c r="H461" s="39"/>
       <c r="I461" s="13"/>
       <c r="J461" s="11"/>
-      <c r="K461" s="53">
-        <v>45146</v>
+      <c r="K461" s="20" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A462" s="23"/>
-      <c r="B462" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C462" s="13"/>
-      <c r="D462" s="39">
-        <v>2</v>
-      </c>
+      <c r="A462" s="23">
+        <f>EDATE(A459,1)</f>
+        <v>42948</v>
+      </c>
+      <c r="B462" s="20"/>
+      <c r="C462" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D462" s="39"/>
       <c r="E462" s="13"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="13"/>
+      <c r="G462" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H462" s="39"/>
       <c r="I462" s="13"/>
       <c r="J462" s="11"/>
-      <c r="K462" s="20" t="s">
-        <v>354</v>
-      </c>
+      <c r="K462" s="20"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23">
-        <f>EDATE(A460,1)</f>
-        <v>42948</v>
+        <f t="shared" si="18"/>
+        <v>42979</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13">
@@ -12294,9 +12294,11 @@
     <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="23">
         <f t="shared" si="18"/>
-        <v>42979</v>
-      </c>
-      <c r="B464" s="20"/>
+        <v>43009</v>
+      </c>
+      <c r="B464" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C464" s="13">
         <v>1.25</v>
       </c>
@@ -12307,161 +12309,166 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H464" s="39"/>
+      <c r="H464" s="39">
+        <v>2</v>
+      </c>
       <c r="I464" s="13"/>
       <c r="J464" s="11"/>
-      <c r="K464" s="20"/>
+      <c r="K464" s="20" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="23">
         <f t="shared" si="18"/>
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B465" s="20" t="s">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="C465" s="13">
         <v>1.25</v>
       </c>
-      <c r="D465" s="39"/>
+      <c r="D465" s="39">
+        <v>10</v>
+      </c>
       <c r="E465" s="13"/>
       <c r="F465" s="20"/>
       <c r="G465" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H465" s="39">
-        <v>2</v>
-      </c>
+      <c r="H465" s="39"/>
       <c r="I465" s="13"/>
       <c r="J465" s="11"/>
       <c r="K465" s="20" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23">
-        <f t="shared" si="18"/>
-        <v>43040</v>
+        <f>EDATE(A465,1)</f>
+        <v>43070</v>
       </c>
       <c r="B466" s="20" t="s">
-        <v>356</v>
+        <v>53</v>
       </c>
       <c r="C466" s="13">
         <v>1.25</v>
       </c>
-      <c r="D466" s="39">
-        <v>10</v>
-      </c>
+      <c r="D466" s="39"/>
       <c r="E466" s="13"/>
       <c r="F466" s="20"/>
       <c r="G466" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H466" s="39"/>
+      <c r="H466" s="39">
+        <v>2</v>
+      </c>
       <c r="I466" s="13"/>
       <c r="J466" s="11"/>
       <c r="K466" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A467" s="23">
-        <f>EDATE(A466,1)</f>
-        <v>43070</v>
-      </c>
+      <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C467" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D467" s="39"/>
+        <v>359</v>
+      </c>
+      <c r="C467" s="13"/>
+      <c r="D467" s="39">
+        <v>2.056</v>
+      </c>
       <c r="E467" s="13"/>
       <c r="F467" s="20"/>
-      <c r="G467" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G467" s="13"/>
       <c r="H467" s="39"/>
       <c r="I467" s="13"/>
       <c r="J467" s="11"/>
-      <c r="K467" s="20" t="s">
-        <v>358</v>
-      </c>
+      <c r="K467" s="20"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A468" s="23"/>
-      <c r="B468" s="20" t="s">
-        <v>359</v>
-      </c>
+      <c r="A468" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B468" s="20"/>
       <c r="C468" s="13"/>
-      <c r="D468" s="39">
-        <v>2.056</v>
-      </c>
-      <c r="E468" s="13"/>
+      <c r="D468" s="39"/>
+      <c r="E468" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F468" s="20"/>
-      <c r="G468" s="13"/>
+      <c r="G468" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H468" s="39"/>
-      <c r="I468" s="13"/>
+      <c r="I468" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A469" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B469" s="20"/>
-      <c r="C469" s="13"/>
-      <c r="D469" s="39"/>
-      <c r="E469" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="A469" s="40">
+        <v>43101</v>
+      </c>
+      <c r="B469" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C469" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D469" s="39">
+        <v>1</v>
+      </c>
+      <c r="E469" s="9"/>
       <c r="F469" s="20"/>
-      <c r="G469" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G469" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H469" s="39"/>
-      <c r="I469" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I469" s="9"/>
       <c r="J469" s="11"/>
-      <c r="K469" s="20"/>
+      <c r="K469" s="49">
+        <v>43119</v>
+      </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B470" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C470" s="13">
         <v>1.25</v>
       </c>
-      <c r="D470" s="39">
-        <v>1</v>
-      </c>
+      <c r="D470" s="39"/>
       <c r="E470" s="9"/>
       <c r="F470" s="20"/>
       <c r="G470" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H470" s="39"/>
+      <c r="H470" s="39">
+        <v>1</v>
+      </c>
       <c r="I470" s="9"/>
       <c r="J470" s="11"/>
       <c r="K470" s="49">
-        <v>43119</v>
+        <v>43157</v>
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B471" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C471" s="13">
         <v>1.25</v>
@@ -12474,90 +12481,83 @@
         <v>1.25</v>
       </c>
       <c r="H471" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I471" s="9"/>
       <c r="J471" s="11"/>
-      <c r="K471" s="49">
-        <v>43157</v>
+      <c r="K471" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A472" s="40">
-        <v>43160</v>
-      </c>
+      <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C472" s="13">
-        <v>1.25</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C472" s="13"/>
       <c r="D472" s="39"/>
       <c r="E472" s="9"/>
       <c r="F472" s="20"/>
-      <c r="G472" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H472" s="39">
-        <v>3</v>
-      </c>
+      <c r="G472" s="13"/>
+      <c r="H472" s="39"/>
       <c r="I472" s="9"/>
       <c r="J472" s="11"/>
-      <c r="K472" s="20" t="s">
-        <v>50</v>
+      <c r="K472" s="49">
+        <v>43186</v>
       </c>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A473" s="40"/>
+      <c r="A473" s="40">
+        <v>43191</v>
+      </c>
       <c r="B473" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C473" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="C473" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D473" s="39"/>
       <c r="E473" s="9"/>
       <c r="F473" s="20"/>
-      <c r="G473" s="13"/>
-      <c r="H473" s="39"/>
+      <c r="G473" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H473" s="39">
+        <v>1</v>
+      </c>
       <c r="I473" s="9"/>
       <c r="J473" s="11"/>
       <c r="K473" s="49">
-        <v>43186</v>
+        <v>43192</v>
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A474" s="40">
-        <v>43191</v>
-      </c>
+      <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C474" s="13">
-        <v>1.25</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C474" s="13"/>
       <c r="D474" s="39"/>
       <c r="E474" s="9"/>
       <c r="F474" s="20"/>
-      <c r="G474" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H474" s="39">
-        <v>1</v>
-      </c>
+      <c r="G474" s="13"/>
+      <c r="H474" s="39"/>
       <c r="I474" s="9"/>
       <c r="J474" s="11"/>
       <c r="K474" s="49">
-        <v>43192</v>
+        <v>43215</v>
       </c>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C475" s="13"/>
-      <c r="D475" s="39"/>
+      <c r="D475" s="39">
+        <v>1</v>
+      </c>
       <c r="E475" s="9"/>
       <c r="F475" s="20"/>
       <c r="G475" s="13"/>
@@ -12565,7 +12565,7 @@
       <c r="I475" s="9"/>
       <c r="J475" s="11"/>
       <c r="K475" s="49">
-        <v>43215</v>
+        <v>43235</v>
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.3">
@@ -12584,77 +12584,78 @@
       <c r="I476" s="9"/>
       <c r="J476" s="11"/>
       <c r="K476" s="49">
-        <v>43235</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A477" s="40"/>
-      <c r="B477" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C477" s="13"/>
-      <c r="D477" s="39">
-        <v>1</v>
-      </c>
+      <c r="A477" s="40">
+        <v>43221</v>
+      </c>
+      <c r="B477" s="20"/>
+      <c r="C477" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D477" s="39"/>
       <c r="E477" s="9"/>
       <c r="F477" s="20"/>
-      <c r="G477" s="13"/>
+      <c r="G477" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H477" s="39"/>
       <c r="I477" s="9"/>
       <c r="J477" s="11"/>
-      <c r="K477" s="49">
-        <v>43236</v>
-      </c>
+      <c r="K477" s="20"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
-        <v>43221</v>
-      </c>
-      <c r="B478" s="20"/>
+        <v>43252</v>
+      </c>
+      <c r="B478" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="C478" s="13">
         <v>1.25</v>
       </c>
-      <c r="D478" s="39"/>
+      <c r="D478" s="43"/>
       <c r="E478" s="9"/>
-      <c r="F478" s="20"/>
-      <c r="G478" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H478" s="39"/>
+      <c r="F478" s="15"/>
+      <c r="G478" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H478" s="43">
+        <v>28</v>
+      </c>
       <c r="I478" s="9"/>
-      <c r="J478" s="11"/>
-      <c r="K478" s="20"/>
+      <c r="J478" s="12"/>
+      <c r="K478" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
-        <v>43252</v>
-      </c>
-      <c r="B479" s="15" t="s">
-        <v>51</v>
-      </c>
+        <v>43282</v>
+      </c>
+      <c r="B479" s="20"/>
       <c r="C479" s="13">
         <v>1.25</v>
       </c>
-      <c r="D479" s="43"/>
+      <c r="D479" s="39"/>
       <c r="E479" s="9"/>
-      <c r="F479" s="15"/>
-      <c r="G479" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H479" s="43">
-        <v>28</v>
-      </c>
+      <c r="F479" s="20"/>
+      <c r="G479" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H479" s="39"/>
       <c r="I479" s="9"/>
-      <c r="J479" s="12"/>
-      <c r="K479" s="15" t="s">
-        <v>55</v>
-      </c>
+      <c r="J479" s="11"/>
+      <c r="K479" s="20"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13">
@@ -12674,9 +12675,11 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
-        <v>43313</v>
-      </c>
-      <c r="B481" s="20"/>
+        <v>43344</v>
+      </c>
+      <c r="B481" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C481" s="13">
         <v>1.25</v>
       </c>
@@ -12687,17 +12690,21 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H481" s="39"/>
+      <c r="H481" s="39">
+        <v>26</v>
+      </c>
       <c r="I481" s="9"/>
       <c r="J481" s="11"/>
-      <c r="K481" s="20"/>
+      <c r="K481" s="20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B482" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C482" s="13">
         <v>1.25</v>
@@ -12710,20 +12717,20 @@
         <v>1.25</v>
       </c>
       <c r="H482" s="39">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="I482" s="9"/>
       <c r="J482" s="11"/>
       <c r="K482" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B483" s="20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C483" s="13">
         <v>1.25</v>
@@ -12736,94 +12743,86 @@
         <v>1.25</v>
       </c>
       <c r="H483" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I483" s="9"/>
       <c r="J483" s="11"/>
       <c r="K483" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A484" s="40">
-        <v>43405</v>
-      </c>
+      <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C484" s="13">
-        <v>1.25</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C484" s="13"/>
       <c r="D484" s="39"/>
       <c r="E484" s="9"/>
       <c r="F484" s="20"/>
-      <c r="G484" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G484" s="13"/>
       <c r="H484" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I484" s="9"/>
       <c r="J484" s="11"/>
-      <c r="K484" s="20" t="s">
-        <v>58</v>
+      <c r="K484" s="49">
+        <v>43416</v>
       </c>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A485" s="40"/>
+      <c r="A485" s="40">
+        <v>43435</v>
+      </c>
       <c r="B485" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C485" s="13"/>
+      <c r="C485" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D485" s="39"/>
       <c r="E485" s="9"/>
       <c r="F485" s="20"/>
-      <c r="G485" s="13"/>
+      <c r="G485" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H485" s="39">
         <v>1</v>
       </c>
       <c r="I485" s="9"/>
       <c r="J485" s="11"/>
       <c r="K485" s="49">
-        <v>43416</v>
+        <v>43452</v>
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A486" s="40">
-        <v>43435</v>
-      </c>
+      <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C486" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D486" s="39"/>
+        <v>54</v>
+      </c>
+      <c r="C486" s="13"/>
+      <c r="D486" s="39">
+        <v>2</v>
+      </c>
       <c r="E486" s="9"/>
       <c r="F486" s="20"/>
-      <c r="G486" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H486" s="39">
-        <v>1</v>
-      </c>
+      <c r="G486" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H486" s="39"/>
       <c r="I486" s="9"/>
       <c r="J486" s="11"/>
-      <c r="K486" s="49">
-        <v>43452</v>
-      </c>
+      <c r="K486" s="20"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A487" s="40"/>
-      <c r="B487" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="A487" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B487" s="20"/>
       <c r="C487" s="13"/>
-      <c r="D487" s="39">
-        <v>2</v>
-      </c>
+      <c r="D487" s="39"/>
       <c r="E487" s="9"/>
       <c r="F487" s="20"/>
       <c r="G487" s="13" t="str">
@@ -12836,61 +12835,67 @@
       <c r="K487" s="20"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A488" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B488" s="20"/>
-      <c r="C488" s="13"/>
+      <c r="A488" s="40">
+        <v>43466</v>
+      </c>
+      <c r="B488" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C488" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D488" s="39"/>
       <c r="E488" s="9"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H488" s="39"/>
+      <c r="G488" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H488" s="39">
+        <v>1</v>
+      </c>
       <c r="I488" s="9"/>
       <c r="J488" s="11"/>
-      <c r="K488" s="20"/>
+      <c r="K488" s="49">
+        <v>43482</v>
+      </c>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A489" s="40">
-        <v>43466</v>
-      </c>
+      <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C489" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D489" s="39"/>
+        <v>60</v>
+      </c>
+      <c r="C489" s="13"/>
+      <c r="D489" s="39">
+        <v>0.108</v>
+      </c>
       <c r="E489" s="9"/>
       <c r="F489" s="20"/>
-      <c r="G489" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H489" s="39">
-        <v>1</v>
-      </c>
+      <c r="G489" s="13"/>
+      <c r="H489" s="39"/>
       <c r="I489" s="9"/>
       <c r="J489" s="11"/>
-      <c r="K489" s="49">
-        <v>43482</v>
-      </c>
+      <c r="K489" s="20"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A490" s="40"/>
+      <c r="A490" s="40">
+        <v>43497</v>
+      </c>
       <c r="B490" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C490" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="C490" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D490" s="39">
-        <v>0.108</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="E490" s="9"/>
       <c r="F490" s="20"/>
-      <c r="G490" s="13"/>
+      <c r="G490" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H490" s="39"/>
       <c r="I490" s="9"/>
       <c r="J490" s="11"/>
@@ -12898,16 +12903,16 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B491" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C491" s="13">
         <v>1.25</v>
       </c>
       <c r="D491" s="39">
-        <v>0.14599999999999999</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="E491" s="9"/>
       <c r="F491" s="20"/>
@@ -12922,16 +12927,16 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B492" s="20" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C492" s="13">
         <v>1.25</v>
       </c>
       <c r="D492" s="39">
-        <v>0.54600000000000004</v>
+        <v>1</v>
       </c>
       <c r="E492" s="9"/>
       <c r="F492" s="20"/>
@@ -12942,164 +12947,168 @@
       <c r="H492" s="39"/>
       <c r="I492" s="9"/>
       <c r="J492" s="11"/>
-      <c r="K492" s="20"/>
+      <c r="K492" s="49">
+        <v>43566</v>
+      </c>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A493" s="40">
-        <v>43556</v>
-      </c>
+      <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C493" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D493" s="39">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C493" s="13"/>
+      <c r="D493" s="39"/>
       <c r="E493" s="9"/>
       <c r="F493" s="20"/>
-      <c r="G493" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G493" s="13"/>
       <c r="H493" s="39"/>
       <c r="I493" s="9"/>
       <c r="J493" s="11"/>
       <c r="K493" s="49">
-        <v>43566</v>
+        <v>43552</v>
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C494" s="13"/>
       <c r="D494" s="39"/>
       <c r="E494" s="9"/>
       <c r="F494" s="20"/>
       <c r="G494" s="13"/>
-      <c r="H494" s="39"/>
+      <c r="H494" s="39">
+        <v>1</v>
+      </c>
       <c r="I494" s="9"/>
       <c r="J494" s="11"/>
       <c r="K494" s="49">
-        <v>43552</v>
+        <v>43585</v>
       </c>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C495" s="13"/>
-      <c r="D495" s="39"/>
+      <c r="D495" s="39">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="E495" s="9"/>
       <c r="F495" s="20"/>
       <c r="G495" s="13"/>
       <c r="H495" s="39"/>
       <c r="I495" s="9"/>
       <c r="J495" s="11"/>
-      <c r="K495" s="49">
-        <v>43585</v>
-      </c>
+      <c r="K495" s="20"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A496" s="40"/>
+      <c r="A496" s="40">
+        <v>43586</v>
+      </c>
       <c r="B496" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C496" s="13"/>
+        <v>65</v>
+      </c>
+      <c r="C496" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D496" s="39">
-        <v>0.13500000000000001</v>
+        <v>3</v>
       </c>
       <c r="E496" s="9"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="13"/>
+      <c r="G496" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H496" s="39"/>
       <c r="I496" s="9"/>
       <c r="J496" s="11"/>
-      <c r="K496" s="20"/>
+      <c r="K496" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A497" s="40">
-        <v>43586</v>
-      </c>
+      <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C497" s="13">
-        <v>1.25</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C497" s="13"/>
       <c r="D497" s="39">
-        <v>3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E497" s="9"/>
       <c r="F497" s="20"/>
-      <c r="G497" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G497" s="13"/>
       <c r="H497" s="39"/>
       <c r="I497" s="9"/>
       <c r="J497" s="11"/>
-      <c r="K497" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="K497" s="20"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A498" s="40"/>
+      <c r="A498" s="40">
+        <v>43617</v>
+      </c>
       <c r="B498" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C498" s="13"/>
-      <c r="D498" s="39">
-        <v>3.5000000000000003E-2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C498" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D498" s="39"/>
       <c r="E498" s="9"/>
       <c r="F498" s="20"/>
-      <c r="G498" s="13"/>
-      <c r="H498" s="39"/>
+      <c r="G498" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H498" s="39">
+        <v>1</v>
+      </c>
       <c r="I498" s="9"/>
       <c r="J498" s="11"/>
-      <c r="K498" s="20"/>
+      <c r="K498" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A499" s="40">
-        <v>43617</v>
-      </c>
+      <c r="A499" s="40"/>
       <c r="B499" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C499" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D499" s="39"/>
+        <v>67</v>
+      </c>
+      <c r="C499" s="13"/>
+      <c r="D499" s="39">
+        <v>3.1E-2</v>
+      </c>
       <c r="E499" s="9"/>
       <c r="F499" s="20"/>
-      <c r="G499" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G499" s="13"/>
       <c r="H499" s="39"/>
       <c r="I499" s="9"/>
       <c r="J499" s="11"/>
-      <c r="K499" s="20" t="s">
-        <v>76</v>
-      </c>
+      <c r="K499" s="20"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A500" s="40"/>
+      <c r="A500" s="40">
+        <v>43647</v>
+      </c>
       <c r="B500" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C500" s="13"/>
+        <v>68</v>
+      </c>
+      <c r="C500" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D500" s="39">
-        <v>3.1E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E500" s="9"/>
       <c r="F500" s="20"/>
-      <c r="G500" s="13"/>
+      <c r="G500" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H500" s="39"/>
       <c r="I500" s="9"/>
       <c r="J500" s="11"/>
@@ -13107,16 +13116,16 @@
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B501" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C501" s="13">
         <v>1.25</v>
       </c>
       <c r="D501" s="39">
-        <v>0.17499999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E501" s="9"/>
       <c r="F501" s="20"/>
@@ -13131,16 +13140,16 @@
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B502" s="20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C502" s="13">
         <v>1.25</v>
       </c>
       <c r="D502" s="39">
-        <v>8.5000000000000006E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E502" s="9"/>
       <c r="F502" s="20"/>
@@ -13155,101 +13164,100 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B503" s="20" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C503" s="13">
         <v>1.25</v>
       </c>
-      <c r="D503" s="39">
-        <v>2.3E-2</v>
-      </c>
+      <c r="D503" s="39"/>
       <c r="E503" s="9"/>
       <c r="F503" s="20"/>
       <c r="G503" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H503" s="39"/>
+      <c r="H503" s="39">
+        <v>1</v>
+      </c>
       <c r="I503" s="9"/>
       <c r="J503" s="11"/>
-      <c r="K503" s="20"/>
+      <c r="K503" s="49">
+        <v>43749</v>
+      </c>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A504" s="40">
-        <v>43739</v>
-      </c>
+      <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C504" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D504" s="39"/>
+        <v>71</v>
+      </c>
+      <c r="C504" s="13"/>
+      <c r="D504" s="39">
+        <v>0.56499999999999995</v>
+      </c>
       <c r="E504" s="9"/>
       <c r="F504" s="20"/>
-      <c r="G504" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G504" s="13"/>
       <c r="H504" s="39"/>
       <c r="I504" s="9"/>
       <c r="J504" s="11"/>
-      <c r="K504" s="49">
-        <v>43749</v>
-      </c>
+      <c r="K504" s="20"/>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A505" s="40"/>
+      <c r="A505" s="40">
+        <v>43770</v>
+      </c>
       <c r="B505" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C505" s="13"/>
-      <c r="D505" s="39">
-        <v>0.56499999999999995</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C505" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D505" s="39"/>
       <c r="E505" s="9"/>
       <c r="F505" s="20"/>
-      <c r="G505" s="13"/>
-      <c r="H505" s="39"/>
+      <c r="G505" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H505" s="39">
+        <v>1</v>
+      </c>
       <c r="I505" s="9"/>
       <c r="J505" s="11"/>
-      <c r="K505" s="20"/>
+      <c r="K505" s="49">
+        <v>43796</v>
+      </c>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A506" s="40">
-        <v>43770</v>
-      </c>
+      <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C506" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D506" s="39"/>
+        <v>72</v>
+      </c>
+      <c r="C506" s="13"/>
+      <c r="D506" s="39">
+        <v>2</v>
+      </c>
       <c r="E506" s="9"/>
       <c r="F506" s="20"/>
-      <c r="G506" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G506" s="13"/>
       <c r="H506" s="39"/>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
-      <c r="K506" s="49">
-        <v>43796</v>
+      <c r="K506" s="20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C507" s="13"/>
       <c r="D507" s="39">
-        <v>2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
@@ -13257,45 +13265,44 @@
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
-      <c r="K507" s="20" t="s">
-        <v>77</v>
-      </c>
+      <c r="K507" s="20"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A508" s="40"/>
+      <c r="A508" s="40">
+        <v>43800</v>
+      </c>
       <c r="B508" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C508" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="C508" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D508" s="39">
-        <v>6.5000000000000002E-2</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13"/>
+      <c r="G508" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A509" s="40">
-        <v>43800</v>
-      </c>
-      <c r="B509" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C509" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D509" s="39">
-        <v>0.63300000000000001</v>
-      </c>
+      <c r="A509" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B509" s="20"/>
+      <c r="C509" s="13"/>
+      <c r="D509" s="39"/>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
-      <c r="G509" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G509" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H509" s="39"/>
       <c r="I509" s="9"/>
@@ -13303,17 +13310,19 @@
       <c r="K509" s="20"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A510" s="48" t="s">
-        <v>63</v>
+      <c r="A510" s="40">
+        <v>43831</v>
       </c>
       <c r="B510" s="20"/>
-      <c r="C510" s="13"/>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
@@ -13322,9 +13331,11 @@
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B511" s="20"/>
+        <v>43862</v>
+      </c>
+      <c r="B511" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C511" s="13">
         <v>1.25</v>
       </c>
@@ -13335,14 +13346,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H511" s="39"/>
+      <c r="H511" s="39">
+        <v>1</v>
+      </c>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
-      <c r="K511" s="20"/>
+      <c r="K511" s="49">
+        <v>43873</v>
+      </c>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B512" s="20" t="s">
         <v>46</v>
@@ -13363,16 +13378,14 @@
       <c r="I512" s="9"/>
       <c r="J512" s="11"/>
       <c r="K512" s="49">
-        <v>43873</v>
+        <v>43920</v>
       </c>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
-        <v>43891</v>
-      </c>
-      <c r="B513" s="20" t="s">
-        <v>46</v>
-      </c>
+        <v>43922</v>
+      </c>
+      <c r="B513" s="20"/>
       <c r="C513" s="13">
         <v>1.25</v>
       </c>
@@ -13383,24 +13396,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H513" s="39">
-        <v>1</v>
-      </c>
+      <c r="H513" s="39"/>
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
-      <c r="K513" s="49">
-        <v>43920</v>
-      </c>
+      <c r="K513" s="20"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
-        <v>43922</v>
-      </c>
-      <c r="B514" s="20"/>
+        <v>43952</v>
+      </c>
+      <c r="B514" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C514" s="13">
         <v>1.25</v>
       </c>
-      <c r="D514" s="39"/>
+      <c r="D514" s="39">
+        <v>1</v>
+      </c>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
       <c r="G514" s="13">
@@ -13410,21 +13423,21 @@
       <c r="H514" s="39"/>
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
-      <c r="K514" s="20"/>
+      <c r="K514" s="49">
+        <v>43966</v>
+      </c>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B515" s="20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C515" s="13">
         <v>1.25</v>
       </c>
-      <c r="D515" s="39">
-        <v>1</v>
-      </c>
+      <c r="D515" s="39"/>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
       <c r="G515" s="13">
@@ -13435,82 +13448,77 @@
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
       <c r="K515" s="49">
-        <v>43966</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A516" s="40">
-        <v>43983</v>
-      </c>
+      <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C516" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D516" s="39"/>
+        <v>65</v>
+      </c>
+      <c r="C516" s="13"/>
+      <c r="D516" s="39">
+        <v>3</v>
+      </c>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
-      <c r="G516" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G516" s="13"/>
       <c r="H516" s="39"/>
       <c r="I516" s="9"/>
       <c r="J516" s="11"/>
-      <c r="K516" s="49">
-        <v>43998</v>
+      <c r="K516" s="20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A517" s="40"/>
+      <c r="A517" s="40">
+        <v>44013</v>
+      </c>
       <c r="B517" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C517" s="13"/>
+      <c r="C517" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D517" s="39">
         <v>3</v>
       </c>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="13"/>
+      <c r="G517" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H517" s="39"/>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
       <c r="K517" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A518" s="40">
-        <v>44013</v>
-      </c>
+      <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C518" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D518" s="39">
-        <v>3</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C518" s="13"/>
+      <c r="D518" s="39"/>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
-      <c r="G518" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H518" s="39"/>
+      <c r="G518" s="13"/>
+      <c r="H518" s="39">
+        <v>6</v>
+      </c>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
       <c r="K518" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C519" s="13"/>
       <c r="D519" s="39"/>
@@ -13518,38 +13526,41 @@
       <c r="F519" s="20"/>
       <c r="G519" s="13"/>
       <c r="H519" s="39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
       <c r="K519" s="20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A520" s="40"/>
-      <c r="B520" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C520" s="13"/>
+      <c r="A520" s="40">
+        <v>44044</v>
+      </c>
+      <c r="B520" s="20"/>
+      <c r="C520" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D520" s="39"/>
       <c r="E520" s="9"/>
       <c r="F520" s="20"/>
-      <c r="G520" s="13"/>
-      <c r="H520" s="39">
-        <v>2</v>
-      </c>
+      <c r="G520" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H520" s="39"/>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
-      <c r="K520" s="20" t="s">
-        <v>82</v>
-      </c>
+      <c r="K520" s="20"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
-        <v>44044</v>
-      </c>
-      <c r="B521" s="20"/>
+        <v>44075</v>
+      </c>
+      <c r="B521" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C521" s="13">
         <v>1.25</v>
       </c>
@@ -13560,35 +13571,32 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H521" s="39"/>
+      <c r="H521" s="39">
+        <v>1</v>
+      </c>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="20"/>
+      <c r="K521" s="49">
+        <v>44091</v>
+      </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A522" s="40">
-        <v>44075</v>
-      </c>
+      <c r="A522" s="40"/>
       <c r="B522" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C522" s="13">
-        <v>1.25</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C522" s="13"/>
       <c r="D522" s="39"/>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G522" s="13"/>
       <c r="H522" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
-      <c r="K522" s="49">
-        <v>44091</v>
+      <c r="K522" s="20" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.3">
@@ -13607,37 +13615,42 @@
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
       <c r="K523" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A524" s="40"/>
-      <c r="B524" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C524" s="13"/>
+      <c r="A524" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B524" s="20"/>
+      <c r="C524" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D524" s="39"/>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13"/>
-      <c r="H524" s="39">
-        <v>3</v>
-      </c>
+      <c r="G524" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H524" s="39"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="K524" s="20"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
-        <v>44105</v>
-      </c>
-      <c r="B525" s="20"/>
+        <v>44136</v>
+      </c>
+      <c r="B525" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C525" s="13">
         <v>1.25</v>
       </c>
-      <c r="D525" s="39"/>
+      <c r="D525" s="39">
+        <v>2</v>
+      </c>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
       <c r="G525" s="13">
@@ -13647,11 +13660,13 @@
       <c r="H525" s="39"/>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
-      <c r="K525" s="20"/>
+      <c r="K525" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B526" s="20" t="s">
         <v>72</v>
@@ -13672,47 +13687,41 @@
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
       <c r="K526" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A527" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B527" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C527" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D527" s="39">
-        <v>2</v>
-      </c>
+      <c r="A527" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B527" s="20"/>
+      <c r="C527" s="13"/>
+      <c r="D527" s="39"/>
       <c r="E527" s="9"/>
       <c r="F527" s="20"/>
-      <c r="G527" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G527" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H527" s="39"/>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
-      <c r="K527" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="K527" s="20"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A528" s="48" t="s">
-        <v>87</v>
+      <c r="A528" s="40">
+        <v>44197</v>
       </c>
       <c r="B528" s="20"/>
-      <c r="C528" s="13"/>
+      <c r="C528" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D528" s="39"/>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
-      <c r="G528" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G528" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H528" s="39"/>
       <c r="I528" s="9"/>
@@ -13721,7 +13730,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13">
@@ -13741,7 +13750,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13">
@@ -13761,7 +13770,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13">
@@ -13781,7 +13790,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13">
@@ -13801,7 +13810,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13">
@@ -13821,7 +13830,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13">
@@ -13841,7 +13850,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13">
@@ -13861,7 +13870,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13">
@@ -13881,7 +13890,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13">
@@ -13901,7 +13910,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13">
@@ -13921,13 +13930,17 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
-        <v>44501</v>
-      </c>
-      <c r="B539" s="20"/>
+        <v>44531</v>
+      </c>
+      <c r="B539" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C539" s="13">
         <v>1.25</v>
       </c>
-      <c r="D539" s="39"/>
+      <c r="D539" s="39">
+        <v>2</v>
+      </c>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
       <c r="G539" s="13">
@@ -13937,43 +13950,37 @@
       <c r="H539" s="39"/>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
-      <c r="K539" s="20"/>
+      <c r="K539" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A540" s="40">
-        <v>44531</v>
-      </c>
+      <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C540" s="13">
-        <v>1.25</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C540" s="13"/>
       <c r="D540" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E540" s="9"/>
       <c r="F540" s="20"/>
-      <c r="G540" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G540" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="K540" s="20"/>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A541" s="40"/>
-      <c r="B541" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="A541" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B541" s="20"/>
       <c r="C541" s="13"/>
-      <c r="D541" s="39">
-        <v>3</v>
-      </c>
+      <c r="D541" s="39"/>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
       <c r="G541" s="13" t="str">
@@ -13986,17 +13993,19 @@
       <c r="K541" s="20"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A542" s="48" t="s">
-        <v>90</v>
+      <c r="A542" s="40">
+        <v>44562</v>
       </c>
       <c r="B542" s="20"/>
-      <c r="C542" s="13"/>
+      <c r="C542" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D542" s="39"/>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
-      <c r="G542" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G542" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H542" s="39"/>
       <c r="I542" s="9"/>
@@ -14005,7 +14014,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13">
@@ -14025,9 +14034,11 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <v>44593</v>
-      </c>
-      <c r="B544" s="20"/>
+        <v>44621</v>
+      </c>
+      <c r="B544" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C544" s="13">
         <v>1.25</v>
       </c>
@@ -14041,52 +14052,50 @@
       <c r="H544" s="39"/>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="20"/>
+      <c r="K544" s="49">
+        <v>44629</v>
+      </c>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A545" s="40">
-        <v>44621</v>
-      </c>
+      <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C545" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C545" s="13"/>
       <c r="D545" s="39"/>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
-      <c r="G545" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
+      <c r="G545" s="13"/>
       <c r="H545" s="39"/>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
       <c r="K545" s="49">
-        <v>44629</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A546" s="40"/>
-      <c r="B546" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C546" s="13"/>
+      <c r="A546" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B546" s="20"/>
+      <c r="C546" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D546" s="39"/>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
-      <c r="G546" s="13"/>
+      <c r="G546" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="49">
-        <v>44648</v>
-      </c>
+      <c r="K546" s="20"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13">
@@ -14106,9 +14115,11 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B548" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B548" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C548" s="13">
         <v>1.25</v>
       </c>
@@ -14119,18 +14130,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H548" s="39"/>
+      <c r="H548" s="39">
+        <v>1</v>
+      </c>
       <c r="I548" s="9"/>
       <c r="J548" s="11"/>
-      <c r="K548" s="20"/>
+      <c r="K548" s="49">
+        <v>44736</v>
+      </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B549" s="20" t="s">
-        <v>46</v>
-      </c>
+        <v>44743</v>
+      </c>
+      <c r="B549" s="20"/>
       <c r="C549" s="13">
         <v>1.25</v>
       </c>
@@ -14141,18 +14154,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H549" s="39">
-        <v>1</v>
-      </c>
+      <c r="H549" s="39"/>
       <c r="I549" s="9"/>
       <c r="J549" s="11"/>
-      <c r="K549" s="49">
-        <v>44736</v>
-      </c>
+      <c r="K549" s="20"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13">
@@ -14172,13 +14181,17 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B551" s="20"/>
+        <v>44805</v>
+      </c>
+      <c r="B551" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C551" s="13">
         <v>1.25</v>
       </c>
-      <c r="D551" s="39"/>
+      <c r="D551" s="39">
+        <v>1</v>
+      </c>
       <c r="E551" s="9"/>
       <c r="F551" s="20"/>
       <c r="G551" s="13">
@@ -14188,59 +14201,55 @@
       <c r="H551" s="39"/>
       <c r="I551" s="9"/>
       <c r="J551" s="11"/>
-      <c r="K551" s="20"/>
+      <c r="K551" s="49">
+        <v>44817</v>
+      </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A552" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A552" s="40"/>
       <c r="B552" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C552" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D552" s="39">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C552" s="13"/>
+      <c r="D552" s="39"/>
       <c r="E552" s="9"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H552" s="39"/>
+      <c r="G552" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H552" s="39">
+        <v>2</v>
+      </c>
       <c r="I552" s="9"/>
       <c r="J552" s="11"/>
-      <c r="K552" s="49">
-        <v>44817</v>
+      <c r="K552" s="49" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A553" s="40"/>
-      <c r="B553" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C553" s="13"/>
+      <c r="A553" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B553" s="20"/>
+      <c r="C553" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D553" s="39"/>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
-      <c r="G553" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H553" s="39">
-        <v>2</v>
-      </c>
+      <c r="G553" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H553" s="39"/>
       <c r="I553" s="9"/>
       <c r="J553" s="11"/>
-      <c r="K553" s="49" t="s">
-        <v>92</v>
-      </c>
+      <c r="K553" s="20"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13">
@@ -14260,13 +14269,17 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B555" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B555" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C555" s="13">
         <v>1.25</v>
       </c>
-      <c r="D555" s="39"/>
+      <c r="D555" s="39">
+        <v>1</v>
+      </c>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
       <c r="G555" s="13">
@@ -14276,43 +14289,39 @@
       <c r="H555" s="39"/>
       <c r="I555" s="9"/>
       <c r="J555" s="11"/>
-      <c r="K555" s="20"/>
+      <c r="K555" s="49">
+        <v>44924</v>
+      </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A556" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C556" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C556" s="13"/>
       <c r="D556" s="39">
         <v>1</v>
       </c>
       <c r="E556" s="9"/>
       <c r="F556" s="20"/>
-      <c r="G556" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G556" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H556" s="39"/>
       <c r="I556" s="9"/>
       <c r="J556" s="11"/>
       <c r="K556" s="49">
-        <v>44924</v>
+        <v>44921</v>
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A557" s="40"/>
-      <c r="B557" s="20" t="s">
-        <v>45</v>
-      </c>
+      <c r="A557" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B557" s="20"/>
       <c r="C557" s="13"/>
-      <c r="D557" s="39">
-        <v>1</v>
-      </c>
+      <c r="D557" s="39"/>
       <c r="E557" s="9"/>
       <c r="F557" s="20"/>
       <c r="G557" s="13" t="str">
@@ -14322,22 +14331,22 @@
       <c r="H557" s="39"/>
       <c r="I557" s="9"/>
       <c r="J557" s="11"/>
-      <c r="K557" s="49">
-        <v>44921</v>
-      </c>
+      <c r="K557" s="20"/>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A558" s="48" t="s">
-        <v>91</v>
+      <c r="A558" s="40">
+        <v>44927</v>
       </c>
       <c r="B558" s="20"/>
-      <c r="C558" s="13"/>
+      <c r="C558" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D558" s="39"/>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G558" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H558" s="39"/>
       <c r="I558" s="9"/>
@@ -14346,7 +14355,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13">
@@ -14366,9 +14375,11 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B560" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B560" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C560" s="13">
         <v>1.25</v>
       </c>
@@ -14382,35 +14393,31 @@
       <c r="H560" s="39"/>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="20"/>
+      <c r="K560" s="49">
+        <v>45013</v>
+      </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B561" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C561" s="13">
-        <v>1.25</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B561" s="20"/>
+      <c r="C561" s="13"/>
       <c r="D561" s="39"/>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="49">
-        <v>45013</v>
-      </c>
+      <c r="K561" s="20"/>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -14428,7 +14435,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -14446,7 +14453,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -14464,7 +14471,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -14482,7 +14489,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -14500,7 +14507,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -14518,7 +14525,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -14536,7 +14543,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -14554,7 +14561,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -14572,7 +14579,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -14590,7 +14597,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -14608,7 +14615,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -14626,7 +14633,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -14644,7 +14651,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -14662,7 +14669,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14680,7 +14687,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14698,7 +14705,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14716,7 +14723,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14734,7 +14741,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -14752,7 +14759,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -14770,7 +14777,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -14788,7 +14795,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -14806,7 +14813,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -14824,7 +14831,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -14842,7 +14849,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -14860,7 +14867,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
-        <v>45778</v>
+        <v>45809</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -14878,7 +14885,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
-        <v>45809</v>
+        <v>45839</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -14896,7 +14903,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40">
-        <v>45839</v>
+        <v>45870</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -14914,7 +14921,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -14932,7 +14939,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
-        <v>45901</v>
+        <v>45931</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -14950,7 +14957,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
-        <v>45931</v>
+        <v>45962</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -14968,7 +14975,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
-        <v>45962</v>
+        <v>45992</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -14986,7 +14993,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
-        <v>45992</v>
+        <v>46023</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15004,7 +15011,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15022,7 +15029,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
-        <v>46054</v>
+        <v>46082</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15040,7 +15047,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40">
-        <v>46082</v>
+        <v>46113</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15058,7 +15065,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
-        <v>46113</v>
+        <v>46143</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15076,7 +15083,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
-        <v>46143</v>
+        <v>46174</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15094,7 +15101,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
-        <v>46174</v>
+        <v>46204</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15112,7 +15119,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
-        <v>46204</v>
+        <v>46235</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15130,7 +15137,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40">
-        <v>46235</v>
+        <v>46266</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15148,7 +15155,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
-        <v>46266</v>
+        <v>46296</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15166,7 +15173,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40">
-        <v>46296</v>
+        <v>46327</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15183,9 +15190,7 @@
       <c r="K604" s="20"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A605" s="40">
-        <v>46327</v>
-      </c>
+      <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
       <c r="D605" s="39"/>
@@ -15265,36 +15270,20 @@
       <c r="K609" s="20"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A610" s="40"/>
-      <c r="B610" s="20"/>
-      <c r="C610" s="13"/>
-      <c r="D610" s="39"/>
+      <c r="A610" s="41"/>
+      <c r="B610" s="15"/>
+      <c r="C610" s="42"/>
+      <c r="D610" s="43"/>
       <c r="E610" s="9"/>
-      <c r="F610" s="20"/>
-      <c r="G610" s="13" t="str">
+      <c r="F610" s="15"/>
+      <c r="G610" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H610" s="39"/>
+      <c r="H610" s="43"/>
       <c r="I610" s="9"/>
-      <c r="J610" s="11"/>
-      <c r="K610" s="20"/>
-    </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A611" s="41"/>
-      <c r="B611" s="15"/>
-      <c r="C611" s="42"/>
-      <c r="D611" s="43"/>
-      <c r="E611" s="9"/>
-      <c r="F611" s="15"/>
-      <c r="G611" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H611" s="43"/>
-      <c r="I611" s="9"/>
-      <c r="J611" s="12"/>
-      <c r="K611" s="15"/>
+      <c r="J610" s="12"/>
+      <c r="K610" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/ALCAZAR, ZENAIDA.xlsx
+++ b/REGULAR/OJT/NEW DONE/ALCAZAR, ZENAIDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F64280-EC7A-4F1F-9B7F-C359F8B73AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A81836-1AA8-4986-A0A3-34224FA1A975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="360">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1807,7 +1807,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2156,10 +2156,10 @@
   </sheetPr>
   <dimension ref="A2:K610"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2772" activePane="bottomLeft"/>
-      <selection activeCell="M5" sqref="M5"/>
-      <selection pane="bottomLeft" activeCell="D558" sqref="D558"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="2772" topLeftCell="A557" activePane="bottomLeft"/>
+      <selection activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="K563" sqref="K563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2318,7 +2318,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>62.797000000000082</v>
+        <v>65.297000000000082</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2328,7 +2328,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.103000000000009</v>
+        <v>65.603000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14402,13 +14402,15 @@
         <v>45017</v>
       </c>
       <c r="B561" s="20"/>
-      <c r="C561" s="13"/>
+      <c r="C561" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D561" s="39"/>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G561" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
@@ -14419,19 +14421,27 @@
       <c r="A562" s="40">
         <v>45047</v>
       </c>
-      <c r="B562" s="20"/>
-      <c r="C562" s="13"/>
+      <c r="B562" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C562" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D562" s="39"/>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
-      <c r="G562" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H562" s="39"/>
+      <c r="G562" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H562" s="39">
+        <v>1</v>
+      </c>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20"/>
+      <c r="K562" s="49">
+        <v>45069</v>
+      </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">

--- a/REGULAR/OJT/NEW DONE/ALCAZAR, ZENAIDA.xlsx
+++ b/REGULAR/OJT/NEW DONE/ALCAZAR, ZENAIDA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A81836-1AA8-4986-A0A3-34224FA1A975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08696ED4-62F4-4A33-9F29-01D1ADCEC74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="360">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2159,7 +2159,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2772" topLeftCell="A557" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="K563" sqref="K563"/>
+      <selection pane="bottomLeft" activeCell="B564" sqref="B564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2318,7 +2318,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.297000000000082</v>
+        <v>66.547000000000082</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2328,7 +2328,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>65.603000000000009</v>
+        <v>65.853000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14447,19 +14447,27 @@
       <c r="A563" s="40">
         <v>45078</v>
       </c>
-      <c r="B563" s="20"/>
-      <c r="C563" s="13"/>
+      <c r="B563" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D563" s="39"/>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H563" s="39"/>
+      <c r="G563" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H563" s="39">
+        <v>1</v>
+      </c>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="20"/>
+      <c r="K563" s="49">
+        <v>45097</v>
+      </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
